--- a/files/ID表生成/Audio.xlsx
+++ b/files/ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J709"/>
+  <dimension ref="A1:J725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>C02女骑库拉蒂_大招_大招释放</t>
+          <t>C02女骑库拉蒂_大招_大招起手</t>
         </is>
       </c>
       <c r="F57" t="b">
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -6667,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -7769,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -7807,7 +7807,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -8187,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -8891,11 +8891,7 @@
           <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_14.AKE_Play_VO_Game_Battle_C02_14'</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>女骑士库拉蒂语音_蓄力攻击Focus_派生-蓄力攻击2</t>
-        </is>
-      </c>
+      <c r="E207" t="inlineStr"/>
       <c r="F207" t="b">
         <v>0</v>
       </c>
@@ -9441,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -9555,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -9669,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -9821,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -9897,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234">
@@ -9973,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -10049,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -10467,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -10489,7 +10485,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_车形态绕场甩尾_我们曾经合作无间。一切都建立在谎言之上。</t>
+          <t>厄什栗boss战语音_马车大回环左_我们曾经合作无间。一切都建立在谎言之上。</t>
         </is>
       </c>
       <c r="F249" t="b">
@@ -10603,7 +10599,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_战争践踏_我受够背叛了！</t>
+          <t>厄什栗boss战语音_战争践踏-等级1_我受够背叛了！</t>
         </is>
       </c>
       <c r="F252" t="b">
@@ -10679,7 +10675,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_南瓜派对_书里说，骗子将经受火刑之罚……这点你与我同罪，侦探！</t>
+          <t>厄什栗boss战语音_南瓜派对_侦探，你知道工厂里存储了多少冗余的武器配件吗？竟然没有一个人拿起它们反抗……真是讽刺！</t>
         </is>
       </c>
       <c r="F254" t="b">
@@ -10717,7 +10713,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_射击/扫射_子弹可是不会讲理的，侦探！不如过来和我硬碰硬！</t>
+          <t>厄什栗boss战语音_射击/扫射（车上）_子弹可是不会讲理的，侦探！不如过来和我硬碰硬！</t>
         </is>
       </c>
       <c r="F255" t="b">
@@ -10755,7 +10751,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_人形态普攻近距离一阶段_东看西看的，还有余力想别的事？专心接招！</t>
+          <t>厄什栗boss战语音_人形态普攻近距离一阶段等级1_东看西看的，还有余力想别的事？专心接招！</t>
         </is>
       </c>
       <c r="F256" t="b">
@@ -10793,7 +10789,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>厄什栗boss战语音_人形态普攻近距离二阶段_我现在的样子让你感到恐惧吧……如此暴力，如此狂妄，但这就是我的本性！</t>
+          <t>厄什栗boss战语音_二阶段入战_我现在的样子让你感到恐惧吧……如此暴力，如此狂妄，但这就是我的本性！</t>
         </is>
       </c>
       <c r="F257" t="b">
@@ -10885,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
@@ -19473,7 +19469,7 @@
         <v>0</v>
       </c>
       <c r="J485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486">
@@ -23121,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="J581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582">
@@ -23159,7 +23155,7 @@
         <v>0</v>
       </c>
       <c r="J582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583">
@@ -23577,7 +23573,7 @@
         <v>0</v>
       </c>
       <c r="J593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594">
@@ -23957,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="J603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604">
@@ -23995,7 +23991,7 @@
         <v>0</v>
       </c>
       <c r="J604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605">
@@ -24223,7 +24219,7 @@
         <v>0</v>
       </c>
       <c r="J610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -26959,7 +26955,7 @@
         <v>0</v>
       </c>
       <c r="J682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683">
@@ -27263,7 +27259,7 @@
         <v>0</v>
       </c>
       <c r="J690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691">
@@ -27415,7 +27411,7 @@
         <v>0</v>
       </c>
       <c r="J694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695">
@@ -27985,6 +27981,614 @@
         <v>0</v>
       </c>
       <c r="J709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>15140</v>
+      </c>
+      <c r="B710" t="n">
+        <v>15140</v>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_33</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_33.AKE_Play_VO_Game_Battle_B01_33'</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_马车大回环右_你咎由自取，我罪有应得……哈哈哈，我们还真是相配啊！</t>
+        </is>
+      </c>
+      <c r="F710" t="b">
+        <v>0</v>
+      </c>
+      <c r="G710" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H710" t="n">
+        <v>0</v>
+      </c>
+      <c r="I710" t="n">
+        <v>0</v>
+      </c>
+      <c r="J710" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>15141</v>
+      </c>
+      <c r="B711" t="n">
+        <v>15141</v>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_29</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_29.AKE_Play_VO_Game_Battle_B01_29'</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_战争践踏-等级2_被蚂蚁践踏的滋味如何啊？！</t>
+        </is>
+      </c>
+      <c r="F711" t="b">
+        <v>0</v>
+      </c>
+      <c r="G711" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H711" t="n">
+        <v>0</v>
+      </c>
+      <c r="I711" t="n">
+        <v>0</v>
+      </c>
+      <c r="J711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>15142</v>
+      </c>
+      <c r="B712" t="n">
+        <v>15142</v>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_30</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_30.AKE_Play_VO_Game_Battle_B01_30'</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_马车跳劈_徒劳！</t>
+        </is>
+      </c>
+      <c r="F712" t="b">
+        <v>0</v>
+      </c>
+      <c r="G712" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0</v>
+      </c>
+      <c r="I712" t="n">
+        <v>0</v>
+      </c>
+      <c r="J712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>15143</v>
+      </c>
+      <c r="B713" t="n">
+        <v>15143</v>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_28</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_28.AKE_Play_VO_Game_Battle_B01_28'</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_驻场冲撞_要是你不来碍事……我就不用对你出手了！</t>
+        </is>
+      </c>
+      <c r="F713" t="b">
+        <v>0</v>
+      </c>
+      <c r="G713" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0</v>
+      </c>
+      <c r="I713" t="n">
+        <v>0</v>
+      </c>
+      <c r="J713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>15144</v>
+      </c>
+      <c r="B714" t="n">
+        <v>15144</v>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_26</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_26.AKE_Play_VO_Game_Battle_B01_26'</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_南瓜派对（驻场）_书里说，骗子将经受火刑之罚……这点你与我同罪，侦探！</t>
+        </is>
+      </c>
+      <c r="F714" t="b">
+        <v>0</v>
+      </c>
+      <c r="G714" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0</v>
+      </c>
+      <c r="I714" t="n">
+        <v>0</v>
+      </c>
+      <c r="J714" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>15145</v>
+      </c>
+      <c r="B715" t="n">
+        <v>15145</v>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_27</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_27.AKE_Play_VO_Game_Battle_B01_27'</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_射击/扫射（车下）_真相只掌握在拿着枪的人手里！哈哈哈，如此至理名言，真该早点认识到！</t>
+        </is>
+      </c>
+      <c r="F715" t="b">
+        <v>0</v>
+      </c>
+      <c r="G715" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H715" t="n">
+        <v>0</v>
+      </c>
+      <c r="I715" t="n">
+        <v>0</v>
+      </c>
+      <c r="J715" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>15146</v>
+      </c>
+      <c r="B716" t="n">
+        <v>15146</v>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_21</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_21.AKE_Play_VO_Game_Battle_B01_21'</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_近战短呼喊1</t>
+        </is>
+      </c>
+      <c r="F716" t="b">
+        <v>0</v>
+      </c>
+      <c r="G716" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H716" t="n">
+        <v>0</v>
+      </c>
+      <c r="I716" t="n">
+        <v>0</v>
+      </c>
+      <c r="J716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>15147</v>
+      </c>
+      <c r="B717" t="n">
+        <v>15147</v>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_22</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_22.AKE_Play_VO_Game_Battle_B01_22'</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_近战短呼喊2</t>
+        </is>
+      </c>
+      <c r="F717" t="b">
+        <v>0</v>
+      </c>
+      <c r="G717" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H717" t="n">
+        <v>0</v>
+      </c>
+      <c r="I717" t="n">
+        <v>0</v>
+      </c>
+      <c r="J717" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>15148</v>
+      </c>
+      <c r="B718" t="n">
+        <v>15148</v>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_23</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_23.AKE_Play_VO_Game_Battle_B01_23'</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_近战短呼喊3</t>
+        </is>
+      </c>
+      <c r="F718" t="b">
+        <v>0</v>
+      </c>
+      <c r="G718" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H718" t="n">
+        <v>0</v>
+      </c>
+      <c r="I718" t="n">
+        <v>0</v>
+      </c>
+      <c r="J718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>15149</v>
+      </c>
+      <c r="B719" t="n">
+        <v>15149</v>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_24</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_24.AKE_Play_VO_Game_Battle_B01_24'</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_近战短呼喊4</t>
+        </is>
+      </c>
+      <c r="F719" t="b">
+        <v>0</v>
+      </c>
+      <c r="G719" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H719" t="n">
+        <v>0</v>
+      </c>
+      <c r="I719" t="n">
+        <v>0</v>
+      </c>
+      <c r="J719" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>15150</v>
+      </c>
+      <c r="B720" t="n">
+        <v>15150</v>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_25</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_25.AKE_Play_VO_Game_Battle_B01_25'</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_近战短呼喊5</t>
+        </is>
+      </c>
+      <c r="F720" t="b">
+        <v>0</v>
+      </c>
+      <c r="G720" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H720" t="n">
+        <v>0</v>
+      </c>
+      <c r="I720" t="n">
+        <v>0</v>
+      </c>
+      <c r="J720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>15151</v>
+      </c>
+      <c r="B721" t="n">
+        <v>15151</v>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_31</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_31.AKE_Play_VO_Game_Battle_B01_31'</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_人形态普攻近距离一阶段等级2_你们知道自己面对着怎样的怪物吗？</t>
+        </is>
+      </c>
+      <c r="F721" t="b">
+        <v>0</v>
+      </c>
+      <c r="G721" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H721" t="n">
+        <v>0</v>
+      </c>
+      <c r="I721" t="n">
+        <v>0</v>
+      </c>
+      <c r="J721" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>15152</v>
+      </c>
+      <c r="B722" t="n">
+        <v>15152</v>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_B01_32</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_B01/VO_Game_Battle_B01/AKE_Play_VO_Game_Battle_B01_32.AKE_Play_VO_Game_Battle_B01_32'</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>厄什栗boss战语音_火焰手风琴_灼烧之苦……相比那时，根本就不算什么！</t>
+        </is>
+      </c>
+      <c r="F722" t="b">
+        <v>0</v>
+      </c>
+      <c r="G722" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0</v>
+      </c>
+      <c r="I722" t="n">
+        <v>0</v>
+      </c>
+      <c r="J722" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>15153</v>
+      </c>
+      <c r="B723" t="n">
+        <v>15153</v>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_C08_18</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_18.AKE_Play_VO_Game_Battle_C08_18'</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>厄什栗语音_处决1_占位</t>
+        </is>
+      </c>
+      <c r="F723" t="b">
+        <v>0</v>
+      </c>
+      <c r="G723" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H723" t="n">
+        <v>0</v>
+      </c>
+      <c r="I723" t="n">
+        <v>0</v>
+      </c>
+      <c r="J723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>15154</v>
+      </c>
+      <c r="B724" t="n">
+        <v>15154</v>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_Game_Battle_C08_19</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C08/VO_Game_Battle_C08/AKE_Play_VO_Game_Battle_C08_19.AKE_Play_VO_Game_Battle_C08_19'</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>厄什栗语音_处决2_短呼喊占位</t>
+        </is>
+      </c>
+      <c r="F724" t="b">
+        <v>0</v>
+      </c>
+      <c r="G724" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H724" t="n">
+        <v>0</v>
+      </c>
+      <c r="I724" t="n">
+        <v>0</v>
+      </c>
+      <c r="J724" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>3369</v>
+      </c>
+      <c r="B725" t="n">
+        <v>3369</v>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C02_Ult_2nd</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C02/Char_Skill_C02/AKE_Play_Char_Skill_C02_Ult_2nd.AKE_Play_Char_Skill_C02_Ult_2nd'</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>C02女骑库拉蒂_大招_大招释放</t>
+        </is>
+      </c>
+      <c r="F725" t="b">
+        <v>0</v>
+      </c>
+      <c r="G725" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H725" t="n">
+        <v>0</v>
+      </c>
+      <c r="I725" t="n">
+        <v>0</v>
+      </c>
+      <c r="J725" t="n">
         <v>0</v>
       </c>
     </row>

--- a/files/ID表生成/Audio.xlsx
+++ b/files/ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J725"/>
+  <dimension ref="A1:J735"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
@@ -8891,7 +8891,11 @@
           <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_Game/VO_Game_C02/VO_Game_Battle_C02/AKE_Play_VO_Game_Battle_C02_14.AKE_Play_VO_Game_Battle_C02_14'</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>女骑士库拉蒂语音_蓄力攻击Focus_派生-蓄力攻击2</t>
+        </is>
+      </c>
       <c r="F207" t="b">
         <v>0</v>
       </c>
@@ -11869,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -11907,7 +11911,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -11945,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -11983,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -12021,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -12059,7 +12063,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -12097,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -12135,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -12173,7 +12177,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -12211,7 +12215,7 @@
         <v>0</v>
       </c>
       <c r="J294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -12249,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -12325,7 +12329,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -12933,7 +12937,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -12971,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -21825,7 +21829,7 @@
         <v>0</v>
       </c>
       <c r="J547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -22851,7 +22855,7 @@
         <v>0</v>
       </c>
       <c r="J574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -24371,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="J614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -24409,7 +24413,7 @@
         <v>0</v>
       </c>
       <c r="J615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -24447,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="J616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -26309,7 +26313,7 @@
         <v>0</v>
       </c>
       <c r="J665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -26347,7 +26351,7 @@
         <v>0</v>
       </c>
       <c r="J666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -26385,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
@@ -26423,7 +26427,7 @@
         <v>0</v>
       </c>
       <c r="J668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
@@ -26461,7 +26465,7 @@
         <v>0</v>
       </c>
       <c r="J669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -26499,7 +26503,7 @@
         <v>0</v>
       </c>
       <c r="J670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
@@ -26537,7 +26541,7 @@
         <v>0</v>
       </c>
       <c r="J671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
@@ -26575,7 +26579,7 @@
         <v>0</v>
       </c>
       <c r="J672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -26613,7 +26617,7 @@
         <v>0</v>
       </c>
       <c r="J673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -26651,7 +26655,7 @@
         <v>0</v>
       </c>
       <c r="J674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675">
@@ -26689,7 +26693,7 @@
         <v>0</v>
       </c>
       <c r="J675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
@@ -28589,6 +28593,386 @@
         <v>0</v>
       </c>
       <c r="J725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>8352</v>
+      </c>
+      <c r="B726" t="n">
+        <v>8352</v>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M03_Born</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M03/Mon_Mob_Skill_M03/AKE_Play_Mon_Mob_Skill_M03_Born.AKE_Play_Mon_Mob_Skill_M03_Born'</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>M03铁甲面_action_入战特效</t>
+        </is>
+      </c>
+      <c r="F726" t="b">
+        <v>0</v>
+      </c>
+      <c r="G726" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H726" t="n">
+        <v>0</v>
+      </c>
+      <c r="I726" t="n">
+        <v>0</v>
+      </c>
+      <c r="J726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>3370</v>
+      </c>
+      <c r="B727" t="n">
+        <v>3370</v>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Expose_Enter1</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Expose_Enter1.AKE_Play_Char_Skill_C01_Expose_Enter1'</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>C01女主雾宁_揭发_小入战</t>
+        </is>
+      </c>
+      <c r="F727" t="b">
+        <v>0</v>
+      </c>
+      <c r="G727" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H727" t="n">
+        <v>0</v>
+      </c>
+      <c r="I727" t="n">
+        <v>0</v>
+      </c>
+      <c r="J727" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>3371</v>
+      </c>
+      <c r="B728" t="n">
+        <v>3371</v>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Expose_Enter2</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Expose_Enter2.AKE_Play_Char_Skill_C01_Expose_Enter2'</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>C01女主雾宁_揭发_大入战第1段</t>
+        </is>
+      </c>
+      <c r="F728" t="b">
+        <v>0</v>
+      </c>
+      <c r="G728" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0</v>
+      </c>
+      <c r="I728" t="n">
+        <v>0</v>
+      </c>
+      <c r="J728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>3372</v>
+      </c>
+      <c r="B729" t="n">
+        <v>3372</v>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Expose_Enter2_2nd</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Expose_Enter2_2nd.AKE_Play_Char_Skill_C01_Expose_Enter2_2nd'</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>C01女主雾宁_揭发_大入战第2段</t>
+        </is>
+      </c>
+      <c r="F729" t="b">
+        <v>0</v>
+      </c>
+      <c r="G729" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H729" t="n">
+        <v>0</v>
+      </c>
+      <c r="I729" t="n">
+        <v>0</v>
+      </c>
+      <c r="J729" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>3373</v>
+      </c>
+      <c r="B730" t="n">
+        <v>3373</v>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Expose_Enter2_3rd</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Expose_Enter2_3rd.AKE_Play_Char_Skill_C01_Expose_Enter2_3rd'</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>C01女主雾宁_揭发_大入战第3段</t>
+        </is>
+      </c>
+      <c r="F730" t="b">
+        <v>0</v>
+      </c>
+      <c r="G730" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0</v>
+      </c>
+      <c r="I730" t="n">
+        <v>0</v>
+      </c>
+      <c r="J730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>3374</v>
+      </c>
+      <c r="B731" t="n">
+        <v>3374</v>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Expose_Fx</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Expose_Fx.AKE_Play_Char_Skill_C01_Expose_Fx'</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>C01女主雾宁_揭发_入站通用武器出现特效</t>
+        </is>
+      </c>
+      <c r="F731" t="b">
+        <v>0</v>
+      </c>
+      <c r="G731" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0</v>
+      </c>
+      <c r="I731" t="n">
+        <v>0</v>
+      </c>
+      <c r="J731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>3375</v>
+      </c>
+      <c r="B732" t="n">
+        <v>3375</v>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Expose_Shot</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Expose_Shot.AKE_Play_Char_Skill_C01_Expose_Shot'</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>C01女主雾宁_揭发_揭发射击</t>
+        </is>
+      </c>
+      <c r="F732" t="b">
+        <v>0</v>
+      </c>
+      <c r="G732" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0</v>
+      </c>
+      <c r="I732" t="n">
+        <v>0</v>
+      </c>
+      <c r="J732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>3376</v>
+      </c>
+      <c r="B733" t="n">
+        <v>3376</v>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Expose_Putaway</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Expose_Putaway.AKE_Play_Char_Skill_C01_Expose_Putaway'</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>C01女主雾宁_揭发_揭发射击后的手枪</t>
+        </is>
+      </c>
+      <c r="F733" t="b">
+        <v>0</v>
+      </c>
+      <c r="G733" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H733" t="n">
+        <v>0</v>
+      </c>
+      <c r="I733" t="n">
+        <v>0</v>
+      </c>
+      <c r="J733" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>3377</v>
+      </c>
+      <c r="B734" t="n">
+        <v>3377</v>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Expose_Exit1</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Expose_Exit1.AKE_Play_Char_Skill_C01_Expose_Exit1'</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>C01女主雾宁_揭发_小出战</t>
+        </is>
+      </c>
+      <c r="F734" t="b">
+        <v>0</v>
+      </c>
+      <c r="G734" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0</v>
+      </c>
+      <c r="I734" t="n">
+        <v>0</v>
+      </c>
+      <c r="J734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>3378</v>
+      </c>
+      <c r="B735" t="n">
+        <v>3378</v>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>AKE_Play_Char_Skill_C01_Expose_Exit2</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Char/Char_C01/Char_Skill_C01/AKE_Play_Char_Skill_C01_Expose_Exit2.AKE_Play_Char_Skill_C01_Expose_Exit2'</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>C01女主雾宁_揭发_大出战</t>
+        </is>
+      </c>
+      <c r="F735" t="b">
+        <v>0</v>
+      </c>
+      <c r="G735" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0</v>
+      </c>
+      <c r="I735" t="n">
+        <v>0</v>
+      </c>
+      <c r="J735" t="n">
         <v>0</v>
       </c>
     </row>

--- a/files/ID表生成/Audio.xlsx
+++ b/files/ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J735"/>
+  <dimension ref="A1:J740"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
@@ -28976,6 +28976,196 @@
         <v>0</v>
       </c>
     </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>15155</v>
+      </c>
+      <c r="B736" t="n">
+        <v>15155</v>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_External_NPC_3D</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_External/AKE_Play_VO_External_NPC_3D.AKE_Play_VO_External_NPC_3D'</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>VO_External_NPC_3D（通用事件模板）</t>
+        </is>
+      </c>
+      <c r="F736" t="b">
+        <v>0</v>
+      </c>
+      <c r="G736" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0</v>
+      </c>
+      <c r="I736" t="n">
+        <v>0</v>
+      </c>
+      <c r="J736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>15156</v>
+      </c>
+      <c r="B737" t="n">
+        <v>15156</v>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_External_NPC_2D</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_External/AKE_Play_VO_External_NPC_2D.AKE_Play_VO_External_NPC_2D'</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>VO__External_NPC_2D（通用事件模板）</t>
+        </is>
+      </c>
+      <c r="F737" t="b">
+        <v>0</v>
+      </c>
+      <c r="G737" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H737" t="n">
+        <v>0</v>
+      </c>
+      <c r="I737" t="n">
+        <v>0</v>
+      </c>
+      <c r="J737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>15157</v>
+      </c>
+      <c r="B738" t="n">
+        <v>15157</v>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_External_1P_3D</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_External/AKE_Play_VO_External_1P_3D.AKE_Play_VO_External_1P_3D'</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>VO_External_1P_3D（通用事件模板）</t>
+        </is>
+      </c>
+      <c r="F738" t="b">
+        <v>0</v>
+      </c>
+      <c r="G738" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0</v>
+      </c>
+      <c r="I738" t="n">
+        <v>0</v>
+      </c>
+      <c r="J738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>15158</v>
+      </c>
+      <c r="B739" t="n">
+        <v>15158</v>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_External_3P_2D</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_External/AKE_Play_VO_External_3P_2D.AKE_Play_VO_External_3P_2D'</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>VO_External_3P_2D（通用事件模板）</t>
+        </is>
+      </c>
+      <c r="F739" t="b">
+        <v>0</v>
+      </c>
+      <c r="G739" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0</v>
+      </c>
+      <c r="I739" t="n">
+        <v>0</v>
+      </c>
+      <c r="J739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>15159</v>
+      </c>
+      <c r="B740" t="n">
+        <v>15159</v>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>AKE_Play_VO_External_3P_3D</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/VO/VO_External/AKE_Play_VO_External_3P_3D.AKE_Play_VO_External_3P_3D'</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>VO_External_3P_3D（通用事件模板）</t>
+        </is>
+      </c>
+      <c r="F740" t="b">
+        <v>0</v>
+      </c>
+      <c r="G740" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H740" t="n">
+        <v>0</v>
+      </c>
+      <c r="I740" t="n">
+        <v>0</v>
+      </c>
+      <c r="J740" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/ID表生成/Audio.xlsx
+++ b/files/ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J740"/>
+  <dimension ref="A1:J747"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
@@ -29166,6 +29166,272 @@
         <v>0</v>
       </c>
     </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>8353</v>
+      </c>
+      <c r="B741" t="n">
+        <v>8353</v>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Surround_Start</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Surround_Start.AKE_Play_Mon_Boss_Part_B01_Surround_Start'</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>B01灰姑娘Boss_进入绕场_进入绕场动作</t>
+        </is>
+      </c>
+      <c r="F741" t="b">
+        <v>0</v>
+      </c>
+      <c r="G741" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H741" t="n">
+        <v>0</v>
+      </c>
+      <c r="I741" t="n">
+        <v>0</v>
+      </c>
+      <c r="J741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>8354</v>
+      </c>
+      <c r="B742" t="n">
+        <v>8354</v>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Surround_Voice</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Surround_Voice.AKE_Play_Mon_Boss_Part_B01_Surround_Voice'</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>B01灰姑娘Boss_进入绕场_进入绕场马的嘶吼</t>
+        </is>
+      </c>
+      <c r="F742" t="b">
+        <v>0</v>
+      </c>
+      <c r="G742" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0</v>
+      </c>
+      <c r="I742" t="n">
+        <v>0</v>
+      </c>
+      <c r="J742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>8355</v>
+      </c>
+      <c r="B743" t="n">
+        <v>8355</v>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Sprint_Run</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Sprint_Run.AKE_Play_Mon_Boss_Part_B01_Sprint_Run'</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>B01灰姑娘Boss_疾跑_马的疾跑声</t>
+        </is>
+      </c>
+      <c r="F743" t="b">
+        <v>0</v>
+      </c>
+      <c r="G743" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0</v>
+      </c>
+      <c r="I743" t="n">
+        <v>0</v>
+      </c>
+      <c r="J743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>8356</v>
+      </c>
+      <c r="B744" t="n">
+        <v>8356</v>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Sprint_Voice</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Sprint_Voice.AKE_Play_Mon_Boss_Part_B01_Sprint_Voice'</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>B01灰姑娘Boss_疾跑_疾跑前的马鸣</t>
+        </is>
+      </c>
+      <c r="F744" t="b">
+        <v>0</v>
+      </c>
+      <c r="G744" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0</v>
+      </c>
+      <c r="I744" t="n">
+        <v>0</v>
+      </c>
+      <c r="J744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>8357</v>
+      </c>
+      <c r="B745" t="n">
+        <v>8357</v>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Storage_Start</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Storage_Start.AKE_Play_Mon_Boss_Part_B01_Storage_Start'</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>B01灰姑娘Boss_退出绕场_退出绕场动作</t>
+        </is>
+      </c>
+      <c r="F745" t="b">
+        <v>0</v>
+      </c>
+      <c r="G745" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H745" t="n">
+        <v>0</v>
+      </c>
+      <c r="I745" t="n">
+        <v>0</v>
+      </c>
+      <c r="J745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>8358</v>
+      </c>
+      <c r="B746" t="n">
+        <v>8358</v>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Boss_Part_B01_Storage_Voice</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Boss/Mon_Boss_B01/Mon_Boss_Part_B01/AKE_Play_Mon_Boss_Part_B01_Storage_Voice.AKE_Play_Mon_Boss_Part_B01_Storage_Voice'</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>B01灰姑娘Boss_退出绕场_蓄力前的马鸣</t>
+        </is>
+      </c>
+      <c r="F746" t="b">
+        <v>0</v>
+      </c>
+      <c r="G746" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H746" t="n">
+        <v>0</v>
+      </c>
+      <c r="I746" t="n">
+        <v>0</v>
+      </c>
+      <c r="J746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>8359</v>
+      </c>
+      <c r="B747" t="n">
+        <v>8359</v>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>AKE_Play_Mon_Mob_Skill_M02_Death_Fx</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Mon/Mon_Mob/Mon_Mob_M02/Mon_Mob_Skill_M02/AKE_Play_Mon_Mob_Skill_M02_Death_Fx.AKE_Play_Mon_Mob_Skill_M02_Death_Fx'</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>M02僵尸蜡烛人_Die_死亡消散特效</t>
+        </is>
+      </c>
+      <c r="F747" t="b">
+        <v>0</v>
+      </c>
+      <c r="G747" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H747" t="n">
+        <v>0</v>
+      </c>
+      <c r="I747" t="n">
+        <v>0</v>
+      </c>
+      <c r="J747" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/ID表生成/Audio.xlsx
+++ b/files/ID表生成/Audio.xlsx
@@ -1014,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J747"/>
+  <dimension ref="A1:J761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
@@ -12351,7 +12351,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>地图_类型_地图1</t>
+          <t>地图_类型_上城区</t>
         </is>
       </c>
       <c r="F298" t="b">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>地图_类型_地图2</t>
+          <t>地图_类型_灰姑娘boss战</t>
         </is>
       </c>
       <c r="F299" t="b">
@@ -24369,7 +24369,7 @@
         <v>1000</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -24407,7 +24407,7 @@
         <v>1000</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>1000</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -24483,7 +24483,7 @@
         <v>1000</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -26307,7 +26307,7 @@
         <v>1000</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -26345,7 +26345,7 @@
         <v>1000</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>1000</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>1000</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>1000</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -26497,7 +26497,7 @@
         <v>1000</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
@@ -26535,7 +26535,7 @@
         <v>1000</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -26573,7 +26573,7 @@
         <v>1000</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
@@ -26611,7 +26611,7 @@
         <v>1000</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
@@ -26649,7 +26649,7 @@
         <v>1000</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
@@ -26687,7 +26687,7 @@
         <v>1000</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>1000</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
@@ -29430,6 +29430,538 @@
       </c>
       <c r="J747" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>30045</v>
+      </c>
+      <c r="B748" t="n">
+        <v>30045</v>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Process_Login</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Process_State/AKE_Set_State_Process_Login.AKE_Set_State_Process_Login'</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>流程_状态_登录</t>
+        </is>
+      </c>
+      <c r="F748" t="b">
+        <v>0</v>
+      </c>
+      <c r="G748" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H748" t="n">
+        <v>8</v>
+      </c>
+      <c r="I748" t="n">
+        <v>0</v>
+      </c>
+      <c r="J748" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>30046</v>
+      </c>
+      <c r="B749" t="n">
+        <v>30046</v>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Map_A03</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Map_Type/AKE_Set_State_Map_A03.AKE_Set_State_Map_A03'</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>地图_类型_深渊副本</t>
+        </is>
+      </c>
+      <c r="F749" t="b">
+        <v>0</v>
+      </c>
+      <c r="G749" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H749" t="n">
+        <v>8</v>
+      </c>
+      <c r="I749" t="n">
+        <v>0</v>
+      </c>
+      <c r="J749" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>30047</v>
+      </c>
+      <c r="B750" t="n">
+        <v>30047</v>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Map_A04</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Map_Type/AKE_Set_State_Map_A04.AKE_Set_State_Map_A04'</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>地图_类型_思维空间</t>
+        </is>
+      </c>
+      <c r="F750" t="b">
+        <v>0</v>
+      </c>
+      <c r="G750" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H750" t="n">
+        <v>8</v>
+      </c>
+      <c r="I750" t="n">
+        <v>0</v>
+      </c>
+      <c r="J750" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>30048</v>
+      </c>
+      <c r="B751" t="n">
+        <v>30048</v>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Region_Area1</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Region_Type/AKE_Set_State_Region_Area1.AKE_Set_State_Region_Area1'</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>区域_类型_区域1</t>
+        </is>
+      </c>
+      <c r="F751" t="b">
+        <v>0</v>
+      </c>
+      <c r="G751" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H751" t="n">
+        <v>8</v>
+      </c>
+      <c r="I751" t="n">
+        <v>0</v>
+      </c>
+      <c r="J751" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>30049</v>
+      </c>
+      <c r="B752" t="n">
+        <v>30049</v>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Region_Area2</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Region_Type/AKE_Set_State_Region_Area2.AKE_Set_State_Region_Area2'</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>区域_类型_区域2</t>
+        </is>
+      </c>
+      <c r="F752" t="b">
+        <v>0</v>
+      </c>
+      <c r="G752" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H752" t="n">
+        <v>8</v>
+      </c>
+      <c r="I752" t="n">
+        <v>0</v>
+      </c>
+      <c r="J752" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>30050</v>
+      </c>
+      <c r="B753" t="n">
+        <v>30050</v>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Region_Area3</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Region_Type/AKE_Set_State_Region_Area3.AKE_Set_State_Region_Area3'</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>区域_类型_区域3</t>
+        </is>
+      </c>
+      <c r="F753" t="b">
+        <v>0</v>
+      </c>
+      <c r="G753" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H753" t="n">
+        <v>8</v>
+      </c>
+      <c r="I753" t="n">
+        <v>0</v>
+      </c>
+      <c r="J753" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>30051</v>
+      </c>
+      <c r="B754" t="n">
+        <v>30051</v>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Door_Indoor</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Door_Type/AKE_Set_State_Door_Indoor.AKE_Set_State_Door_Indoor'</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>环境_类型_室内</t>
+        </is>
+      </c>
+      <c r="F754" t="b">
+        <v>0</v>
+      </c>
+      <c r="G754" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H754" t="n">
+        <v>8</v>
+      </c>
+      <c r="I754" t="n">
+        <v>0</v>
+      </c>
+      <c r="J754" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>30052</v>
+      </c>
+      <c r="B755" t="n">
+        <v>30052</v>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Door_Outdoor</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Door_Type/AKE_Set_State_Door_Outdoor.AKE_Set_State_Door_Outdoor'</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>环境_类型_室外</t>
+        </is>
+      </c>
+      <c r="F755" t="b">
+        <v>0</v>
+      </c>
+      <c r="G755" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H755" t="n">
+        <v>8</v>
+      </c>
+      <c r="I755" t="n">
+        <v>0</v>
+      </c>
+      <c r="J755" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>30053</v>
+      </c>
+      <c r="B756" t="n">
+        <v>30053</v>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Plot_PG01</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Plot_Type/AKE_Set_State_Plot_PG01.AKE_Set_State_Plot_PG01'</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>故事_类型_剧情通用01</t>
+        </is>
+      </c>
+      <c r="F756" t="b">
+        <v>0</v>
+      </c>
+      <c r="G756" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H756" t="n">
+        <v>8</v>
+      </c>
+      <c r="I756" t="n">
+        <v>0</v>
+      </c>
+      <c r="J756" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>30054</v>
+      </c>
+      <c r="B757" t="n">
+        <v>30054</v>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Plot_PG02</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Plot_Type/AKE_Set_State_Plot_PG02.AKE_Set_State_Plot_PG02'</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>故事_类型_剧情通用02</t>
+        </is>
+      </c>
+      <c r="F757" t="b">
+        <v>0</v>
+      </c>
+      <c r="G757" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H757" t="n">
+        <v>8</v>
+      </c>
+      <c r="I757" t="n">
+        <v>0</v>
+      </c>
+      <c r="J757" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>30055</v>
+      </c>
+      <c r="B758" t="n">
+        <v>30055</v>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Plot_PG03</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Plot_Type/AKE_Set_State_Plot_PG03.AKE_Set_State_Plot_PG03'</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>故事_类型_剧情通用03</t>
+        </is>
+      </c>
+      <c r="F758" t="b">
+        <v>0</v>
+      </c>
+      <c r="G758" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H758" t="n">
+        <v>8</v>
+      </c>
+      <c r="I758" t="n">
+        <v>0</v>
+      </c>
+      <c r="J758" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>30056</v>
+      </c>
+      <c r="B759" t="n">
+        <v>30056</v>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Plot_PD01</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Plot_Type/AKE_Set_State_Plot_PD01.AKE_Set_State_Plot_PD01'</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>故事_类型_特定剧情01</t>
+        </is>
+      </c>
+      <c r="F759" t="b">
+        <v>0</v>
+      </c>
+      <c r="G759" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H759" t="n">
+        <v>8</v>
+      </c>
+      <c r="I759" t="n">
+        <v>0</v>
+      </c>
+      <c r="J759" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>30057</v>
+      </c>
+      <c r="B760" t="n">
+        <v>30057</v>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Plot_PD02</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Plot_Type/AKE_Set_State_Plot_PD02.AKE_Set_State_Plot_PD02'</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>故事_类型_特定剧情02</t>
+        </is>
+      </c>
+      <c r="F760" t="b">
+        <v>0</v>
+      </c>
+      <c r="G760" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H760" t="n">
+        <v>8</v>
+      </c>
+      <c r="I760" t="n">
+        <v>0</v>
+      </c>
+      <c r="J760" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>30058</v>
+      </c>
+      <c r="B761" t="n">
+        <v>30058</v>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>AKE_Set_State_Plot_PD03</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>/Script/AkAudio.AkAudioEvent'/Game/Audio/WwiseAudio/Events/v1/Set/Set_State/Plot_Type/AKE_Set_State_Plot_PD03.AKE_Set_State_Plot_PD03'</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>故事_类型_特定剧情03</t>
+        </is>
+      </c>
+      <c r="F761" t="b">
+        <v>0</v>
+      </c>
+      <c r="G761" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H761" t="n">
+        <v>8</v>
+      </c>
+      <c r="I761" t="n">
+        <v>0</v>
+      </c>
+      <c r="J761" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
